--- a/items.xlsx
+++ b/items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayaman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GhostScanHost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A41B7-5998-437B-9F39-385D40C8AE29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF983AD3-253E-40E2-89F2-2FAF9F4DD90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23865" yWindow="3855" windowWidth="17100" windowHeight="7875" xr2:uid="{FB56FFAC-445B-430A-8F1A-A6774778ECB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB56FFAC-445B-430A-8F1A-A6774778ECB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="378">
   <si>
     <t>九字の札</t>
     <rPh sb="0" eb="2">
@@ -1394,21 +1394,916 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>昇天させたおばけ一覧</t>
+    <t>DP+20,SP-2,TP+5,PP+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間コンフィグ</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ghostpurifyed0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ghostpurifyed1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ghostpurifyed2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ghostpurifyed3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ghostpurifyed4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇天させたおばけグループ0</t>
     <rPh sb="0" eb="2">
       <t>ショウテン</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ghostpurifyed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DP+20,SP-2,TP+5,PP+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇天させたおばけグループ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇天させたおばけグループ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇天させたおばけグループ3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇天させたおばけグループ4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サヨ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綾瀬うらら</t>
+    <rPh sb="0" eb="2">
+      <t>アヤセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉良美世</t>
+    <rPh sb="0" eb="2">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キヨミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横地監物</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンモツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大石照基</t>
+    <rPh sb="0" eb="2">
+      <t>オオイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子家重</t>
+    <rPh sb="0" eb="2">
+      <t>カネコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イエシゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下士郎宗貞</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シロウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムネサダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白井あおい</t>
+    <rPh sb="0" eb="2">
+      <t>シライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中畑修</t>
+    <rPh sb="0" eb="2">
+      <t>ナカハタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オサム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綾瀬社長</t>
+    <rPh sb="0" eb="2">
+      <t>アヤセ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将1</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将2</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将3</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将4</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将5</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将6</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将7</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将8</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将9</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武将10</t>
+    <rPh sb="0" eb="2">
+      <t>ブショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽1</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽2</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽3</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽4</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽5</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽6</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽7</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽8</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽9</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足軽10</t>
+    <rPh sb="0" eb="2">
+      <t>アシガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僧侶1</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僧侶2</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僧侶3</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僧侶4</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僧侶5</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵1</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵2</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵3</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵4</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵5</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵6</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵7</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵8</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵9</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑兵10</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農民1</t>
+    <rPh sb="0" eb="2">
+      <t>ノウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農民2</t>
+    <rPh sb="0" eb="2">
+      <t>ノウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農民3</t>
+    <rPh sb="0" eb="2">
+      <t>ノウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農民4</t>
+    <rPh sb="0" eb="2">
+      <t>ノウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農民5</t>
+    <rPh sb="0" eb="2">
+      <t>ノウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民1</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民2</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民3</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民4</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民5</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民6</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民7</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民8</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民9</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町民10</t>
+    <rPh sb="0" eb="2">
+      <t>チョウミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬1</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬2</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬3</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬4</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬5</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫1</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫2</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫3</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫4</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫5</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供1</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供2</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供3</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供4</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供5</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人1</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人2</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人3</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人4</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人5</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人6</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人7</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人8</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人9</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人10</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪人1</t>
+    <rPh sb="0" eb="2">
+      <t>カイジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪人2</t>
+    <rPh sb="0" eb="2">
+      <t>カイジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪人3</t>
+    <rPh sb="0" eb="2">
+      <t>カイジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪人4</t>
+    <rPh sb="0" eb="2">
+      <t>カイジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪人5</t>
+    <rPh sb="0" eb="2">
+      <t>カイジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湯浅五助</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尼子晴久</t>
+    <rPh sb="0" eb="2">
+      <t>アマゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハルヒサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐々成政</t>
+    <rPh sb="0" eb="2">
+      <t>サッサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナリマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武田勝頼</t>
+    <rPh sb="0" eb="2">
+      <t>タケダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カツヨリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上杉景虎</t>
+    <rPh sb="0" eb="2">
+      <t>ウエスギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カゲトラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松田憲秀</t>
+    <rPh sb="0" eb="2">
+      <t>マツダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノリヒデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大内義隆</t>
+    <rPh sb="0" eb="2">
+      <t>オオウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨシタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝倉義景</t>
+    <rPh sb="0" eb="2">
+      <t>アサクラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨシカゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陶晴賢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利義輝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大内義長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別所長治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姫1</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姫2</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姫3</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姫4</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姫5</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姫6</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姫7</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般人</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1473,7 +2368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1489,19 +2384,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1818,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220F900-B373-4A88-AB5E-7C334952CFF8}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="D100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1831,30 +2732,40 @@
     <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="2.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.75" style="5" customWidth="1"/>
     <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="37.25" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="28.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="2.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="6"/>
+      <c r="M1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1879,8 +2790,17 @@
       <c r="J2" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>175</v>
       </c>
@@ -1908,8 +2828,17 @@
       <c r="K3" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M3" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>176</v>
       </c>
@@ -1934,8 +2863,15 @@
       <c r="J4" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M4" s="10"/>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>177</v>
       </c>
@@ -1960,8 +2896,15 @@
       <c r="J5" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M5" s="10"/>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
@@ -1986,8 +2929,15 @@
       <c r="J6" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M6" s="10"/>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2012,8 +2962,15 @@
       <c r="J7" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M7" s="10"/>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
@@ -2026,20 +2983,27 @@
       <c r="E8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>117</v>
       </c>
@@ -2052,23 +3016,30 @@
       <c r="E9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>116</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M9" s="10"/>
+      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
@@ -2081,20 +3052,27 @@
       <c r="E10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="1">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>119</v>
       </c>
@@ -2107,8 +3085,15 @@
       <c r="E11" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M11" s="10"/>
+      <c r="N11" s="1">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>120</v>
       </c>
@@ -2136,8 +3121,15 @@
       <c r="K12" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M12" s="10"/>
+      <c r="N12" s="1">
+        <v>9</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>121</v>
       </c>
@@ -2150,8 +3142,15 @@
       <c r="E13" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M13" s="10"/>
+      <c r="N13" s="1">
+        <v>10</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>122</v>
       </c>
@@ -2179,8 +3178,15 @@
       <c r="K14" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M14" s="10"/>
+      <c r="N14" s="1">
+        <v>11</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>123</v>
       </c>
@@ -2193,8 +3199,15 @@
       <c r="E15" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M15" s="10"/>
+      <c r="N15" s="1">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>124</v>
       </c>
@@ -2222,8 +3235,15 @@
       <c r="K16" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M16" s="10"/>
+      <c r="N16" s="1">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>125</v>
       </c>
@@ -2236,8 +3256,15 @@
       <c r="E17" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M17" s="10"/>
+      <c r="N17" s="1">
+        <v>14</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>110</v>
       </c>
@@ -2265,8 +3292,15 @@
       <c r="K18" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M18" s="10"/>
+      <c r="N18" s="1">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>174</v>
       </c>
@@ -2279,8 +3313,15 @@
       <c r="E19" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M19" s="10"/>
+      <c r="N19" s="1">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>196</v>
       </c>
@@ -2305,8 +3346,15 @@
       <c r="J20" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M20" s="10"/>
+      <c r="N20" s="1">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
@@ -2319,8 +3367,15 @@
       <c r="E21" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M21" s="10"/>
+      <c r="N21" s="1">
+        <v>18</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,8 +3388,15 @@
       <c r="E22" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M22" s="10"/>
+      <c r="N22" s="1">
+        <v>19</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -2347,8 +3409,15 @@
       <c r="E23" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M23" s="10"/>
+      <c r="N23" s="1">
+        <v>20</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2361,725 +3430,1624 @@
       <c r="E24" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="5" t="s">
+      <c r="M24" s="10"/>
+      <c r="N24" s="1">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
+      <c r="C25" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="1">
+        <v>22</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="1">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="1">
+        <v>24</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="M30" s="10"/>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="1">
+        <v>4</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="1">
+        <v>5</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="1">
+        <v>6</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="1">
+        <v>7</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="1">
+        <v>8</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="1">
+        <v>9</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="1">
+        <v>10</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="1">
+        <v>11</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="1">
+        <v>12</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="1">
+        <v>13</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="1">
+        <v>14</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c r="N43" s="1">
+        <v>15</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="1">
+        <v>16</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="1">
+        <v>17</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="M46" s="10"/>
+      <c r="N46" s="1">
+        <v>18</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="1">
+      <c r="E47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c r="N47" s="1">
+        <v>19</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="M48" s="10"/>
+      <c r="N48" s="1">
+        <v>20</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="1">
+      <c r="E49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c r="N49" s="1">
+        <v>21</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
+      <c r="E50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c r="N50" s="1">
+        <v>22</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>3</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
+      <c r="E51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c r="N51" s="1">
+        <v>23</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>4</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
+      <c r="E52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="1">
+        <v>24</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
         <v>5</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="1">
+      <c r="E53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>6</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="1">
+      <c r="E54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
         <v>7</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
+      <c r="E55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c r="N55" s="1">
+        <v>2</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
         <v>8</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
+      <c r="E56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c r="N56" s="1">
+        <v>3</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
         <v>9</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="1">
+      <c r="E57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c r="N57" s="1">
+        <v>4</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>10</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1">
+      <c r="E58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c r="N58" s="1">
+        <v>5</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
         <v>11</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="1">
+      <c r="E59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="1">
+        <v>6</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
         <v>12</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="1">
+      <c r="E60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c r="N60" s="1">
+        <v>7</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
         <v>13</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="1">
+      <c r="E61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c r="N61" s="1">
+        <v>8</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>14</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="1">
+      <c r="E62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c r="N62" s="1">
+        <v>9</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>15</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="1">
+      <c r="E63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c r="N63" s="1">
+        <v>10</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
         <v>16</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" s="1">
+      <c r="E64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c r="N64" s="1">
+        <v>11</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
         <v>17</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="1">
+      <c r="E65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c r="N65" s="1">
+        <v>12</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
         <v>18</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" s="1">
-        <v>2</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="1">
-        <v>3</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="E66" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="M66" s="10"/>
+      <c r="N66" s="1">
+        <v>13</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M67" s="10"/>
+      <c r="N67" s="1">
+        <v>14</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="M68" s="10"/>
+      <c r="N68" s="1">
+        <v>15</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="M69" s="10"/>
+      <c r="N69" s="1">
+        <v>16</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c r="N70" s="1">
+        <v>17</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="D71" s="1"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="1">
+        <v>18</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="1">
+        <v>19</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c r="N73" s="1">
+        <v>20</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" s="1">
+      <c r="E74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" s="1">
+        <v>21</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
         <v>4</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" s="1">
+      <c r="E75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c r="N75" s="1">
+        <v>22</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M76" s="10"/>
+      <c r="N76" s="1">
+        <v>23</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="1">
+      <c r="E77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c r="N77" s="1">
+        <v>24</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="1">
+      <c r="E78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>116</v>
+      <c r="E79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M80" s="10"/>
+      <c r="N80" s="1">
+        <v>2</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M81" s="10"/>
+      <c r="N81" s="1">
+        <v>3</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M82" s="10"/>
+      <c r="N82" s="1">
+        <v>4</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M83" s="10"/>
+      <c r="N83" s="1">
+        <v>5</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M84" s="10"/>
+      <c r="N84" s="1">
+        <v>6</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M85" s="10"/>
+      <c r="N85" s="1">
+        <v>7</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M86" s="10"/>
+      <c r="N86" s="1">
+        <v>8</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M87" s="10"/>
+      <c r="N87" s="1">
+        <v>9</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M88" s="10"/>
+      <c r="N88" s="1">
+        <v>10</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M89" s="10"/>
+      <c r="N89" s="1">
+        <v>11</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="90" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M90" s="10"/>
+      <c r="N90" s="1">
+        <v>12</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M91" s="10"/>
+      <c r="N91" s="1">
+        <v>13</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M92" s="10"/>
+      <c r="N92" s="1">
+        <v>14</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M93" s="10"/>
+      <c r="N93" s="1">
+        <v>15</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M94" s="10"/>
+      <c r="N94" s="1">
+        <v>16</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M95" s="10"/>
+      <c r="N95" s="1">
+        <v>17</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="96" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M96" s="10"/>
+      <c r="N96" s="1">
+        <v>18</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M97" s="10"/>
+      <c r="N97" s="1">
+        <v>19</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="98" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M98" s="10"/>
+      <c r="N98" s="1">
+        <v>20</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="99" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M99" s="10"/>
+      <c r="N99" s="1">
+        <v>21</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M100" s="10"/>
+      <c r="N100" s="1">
+        <v>22</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M101" s="10"/>
+      <c r="N101" s="1">
+        <v>23</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M102" s="10"/>
+      <c r="N102" s="1">
+        <v>24</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M103" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M104" s="10"/>
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="105" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M105" s="10"/>
+      <c r="N105" s="1">
+        <v>2</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M106" s="10"/>
+      <c r="N106" s="1">
+        <v>3</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M107" s="10"/>
+      <c r="N107" s="1">
+        <v>4</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M108" s="10"/>
+      <c r="N108" s="1">
+        <v>5</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M109" s="10"/>
+      <c r="N109" s="1">
+        <v>6</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M110" s="10"/>
+      <c r="N110" s="1">
+        <v>7</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="111" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M111" s="10"/>
+      <c r="N111" s="1">
+        <v>8</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="112" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M112" s="10"/>
+      <c r="N112" s="1">
+        <v>9</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M113" s="10"/>
+      <c r="N113" s="1">
+        <v>10</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="114" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M114" s="10"/>
+      <c r="N114" s="1">
+        <v>11</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="115" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M115" s="10"/>
+      <c r="N115" s="1">
+        <v>12</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="116" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M116" s="10"/>
+      <c r="N116" s="1">
+        <v>13</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="117" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M117" s="10"/>
+      <c r="N117" s="1">
+        <v>14</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M118" s="10"/>
+      <c r="N118" s="1">
+        <v>15</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="119" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M119" s="10"/>
+      <c r="N119" s="1">
+        <v>16</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M120" s="10"/>
+      <c r="N120" s="1">
+        <v>17</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="121" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M121" s="10"/>
+      <c r="N121" s="1">
+        <v>18</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="122" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M122" s="10"/>
+      <c r="N122" s="1">
+        <v>19</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="123" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M123" s="10"/>
+      <c r="N123" s="1">
+        <v>20</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M124" s="10"/>
+      <c r="N124" s="1">
+        <v>21</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M125" s="10"/>
+      <c r="N125" s="1">
+        <v>22</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="126" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M126" s="10"/>
+      <c r="N126" s="1">
+        <v>23</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="127" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M127" s="10"/>
+      <c r="N127" s="1">
+        <v>24</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="M53:M77"/>
+    <mergeCell ref="M78:M102"/>
+    <mergeCell ref="M103:M127"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M3:M27"/>
+    <mergeCell ref="M28:M52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GhostScanHost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF983AD3-253E-40E2-89F2-2FAF9F4DD90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7FCF8F-4DE9-481D-BCAD-0D552B4DB8E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB56FFAC-445B-430A-8F1A-A6774778ECB9}"/>
+    <workbookView xWindow="24915" yWindow="3330" windowWidth="17100" windowHeight="7875" xr2:uid="{FB56FFAC-445B-430A-8F1A-A6774778ECB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2393,14 +2393,14 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2721,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220F900-B373-4A88-AB5E-7C334952CFF8}">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -2745,18 +2745,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="6"/>
       <c r="M1" s="11" t="s">
         <v>246</v>
@@ -2828,7 +2828,7 @@
       <c r="K3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>259</v>
       </c>
       <c r="N3" s="1">
@@ -2863,7 +2863,7 @@
       <c r="J4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="1">
         <v>1</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="J5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="1">
         <v>2</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="J6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="1">
         <v>3</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="1">
         <v>4</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="J8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="1">
         <v>5</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="K9" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="1">
         <v>6</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="J10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="1">
         <v>7</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="E11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="1">
         <v>8</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="K12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="1">
         <v>9</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="E13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="1">
         <v>10</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="K14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="1">
         <v>11</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="E15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="1">
         <v>12</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="K16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="1">
         <v>13</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="E17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="1">
         <v>14</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="K18" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="1">
         <v>15</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="E19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="1">
         <v>16</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="J20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="1">
         <v>17</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="E21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="1">
         <v>18</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="E22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="1">
         <v>19</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="E23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="1">
         <v>20</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="E24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="1">
         <v>21</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="E25" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="1">
         <v>22</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="E26" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M26" s="10"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="1">
         <v>23</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="E27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="1">
         <v>24</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="E28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N28" s="1">
@@ -3529,7 +3529,7 @@
       <c r="E29" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M29" s="10"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="1">
         <v>1</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="M30" s="10"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="1">
         <v>2</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="E31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="10"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="1">
         <v>3</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="E32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="10"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="1">
         <v>4</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="E33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="10"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="1">
         <v>5</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="E34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M34" s="10"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="1">
         <v>6</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="E35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M35" s="10"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="1">
         <v>7</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="E36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M36" s="10"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="1">
         <v>8</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="E37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="10"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="1">
         <v>9</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M38" s="10"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="1">
         <v>10</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="E39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M39" s="10"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="1">
         <v>11</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="E40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M40" s="10"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="1">
         <v>12</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="E41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M41" s="10"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="1">
         <v>13</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="E42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M42" s="10"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="1">
         <v>14</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="E43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M43" s="10"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="1">
         <v>15</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="E44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M44" s="10"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="1">
         <v>16</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="E45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M45" s="10"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="1">
         <v>17</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="M46" s="10"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="1">
         <v>18</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="E47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M47" s="10"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="1">
         <v>19</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="M48" s="10"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="1">
         <v>20</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="E49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M49" s="10"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="1">
         <v>21</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="E50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M50" s="10"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="1">
         <v>22</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="E51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M51" s="10"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="1">
         <v>23</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="E52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M52" s="10"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="1">
         <v>24</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="E53" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="M53" s="8" t="s">
         <v>313</v>
       </c>
       <c r="N53" s="1">
@@ -4038,7 +4038,7 @@
       <c r="E54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M54" s="10"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="1">
         <v>1</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="E55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M55" s="10"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="1">
         <v>2</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="E56" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M56" s="10"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="1">
         <v>3</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="E57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M57" s="10"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="1">
         <v>4</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="E58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M58" s="10"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="1">
         <v>5</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="E59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M59" s="10"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="1">
         <v>6</v>
       </c>
@@ -4182,7 +4182,7 @@
       <c r="E60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M60" s="10"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="1">
         <v>7</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="E61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M61" s="10"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="1">
         <v>8</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="E62" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M62" s="10"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="1">
         <v>9</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="E63" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M63" s="10"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="1">
         <v>10</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="E64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M64" s="10"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="1">
         <v>11</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="E65" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M65" s="10"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="1">
         <v>12</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="E66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M66" s="10"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="1">
         <v>13</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M67" s="10"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="1">
         <v>14</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="E68" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M68" s="10"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="1">
         <v>15</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="E69" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M69" s="10"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="1">
         <v>16</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="E70" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M70" s="10"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="1">
         <v>17</v>
       </c>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D71" s="1"/>
-      <c r="M71" s="10"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="1">
         <v>18</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="E72" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M72" s="10"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="1">
         <v>19</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="E73" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M73" s="10"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="1">
         <v>20</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="E74" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M74" s="10"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="1">
         <v>21</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="E75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M75" s="10"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="1">
         <v>22</v>
       </c>
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M76" s="10"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="1">
         <v>23</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="E77" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M77" s="10"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="1">
         <v>24</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="E78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M78" s="10" t="s">
+      <c r="M78" s="8" t="s">
         <v>341</v>
       </c>
       <c r="N78" s="1">
@@ -4596,7 +4596,7 @@
       <c r="E79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M79" s="10"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="1">
         <v>1</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M80" s="10"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="1">
         <v>2</v>
       </c>
@@ -4614,7 +4614,7 @@
       </c>
     </row>
     <row r="81" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M81" s="10"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="1">
         <v>3</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
     </row>
     <row r="82" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M82" s="10"/>
+      <c r="M82" s="8"/>
       <c r="N82" s="1">
         <v>4</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
     </row>
     <row r="83" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M83" s="10"/>
+      <c r="M83" s="8"/>
       <c r="N83" s="1">
         <v>5</v>
       </c>
@@ -4641,7 +4641,7 @@
       </c>
     </row>
     <row r="84" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M84" s="10"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="1">
         <v>6</v>
       </c>
@@ -4650,7 +4650,7 @@
       </c>
     </row>
     <row r="85" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M85" s="10"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="1">
         <v>7</v>
       </c>
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="86" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M86" s="10"/>
+      <c r="M86" s="8"/>
       <c r="N86" s="1">
         <v>8</v>
       </c>
@@ -4668,7 +4668,7 @@
       </c>
     </row>
     <row r="87" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M87" s="10"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="1">
         <v>9</v>
       </c>
@@ -4677,7 +4677,7 @@
       </c>
     </row>
     <row r="88" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M88" s="10"/>
+      <c r="M88" s="8"/>
       <c r="N88" s="1">
         <v>10</v>
       </c>
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="89" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M89" s="10"/>
+      <c r="M89" s="8"/>
       <c r="N89" s="1">
         <v>11</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
     </row>
     <row r="90" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M90" s="10"/>
+      <c r="M90" s="8"/>
       <c r="N90" s="1">
         <v>12</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
     </row>
     <row r="91" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M91" s="10"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="1">
         <v>13</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="92" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M92" s="10"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="1">
         <v>14</v>
       </c>
@@ -4722,7 +4722,7 @@
       </c>
     </row>
     <row r="93" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M93" s="10"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="1">
         <v>15</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
     </row>
     <row r="94" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M94" s="10"/>
+      <c r="M94" s="8"/>
       <c r="N94" s="1">
         <v>16</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
     </row>
     <row r="95" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M95" s="10"/>
+      <c r="M95" s="8"/>
       <c r="N95" s="1">
         <v>17</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
     </row>
     <row r="96" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M96" s="10"/>
+      <c r="M96" s="8"/>
       <c r="N96" s="1">
         <v>18</v>
       </c>
@@ -4758,7 +4758,7 @@
       </c>
     </row>
     <row r="97" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M97" s="10"/>
+      <c r="M97" s="8"/>
       <c r="N97" s="1">
         <v>19</v>
       </c>
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="98" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M98" s="10"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="1">
         <v>20</v>
       </c>
@@ -4776,7 +4776,7 @@
       </c>
     </row>
     <row r="99" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M99" s="10"/>
+      <c r="M99" s="8"/>
       <c r="N99" s="1">
         <v>21</v>
       </c>
@@ -4785,7 +4785,7 @@
       </c>
     </row>
     <row r="100" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M100" s="10"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="1">
         <v>22</v>
       </c>
@@ -4794,7 +4794,7 @@
       </c>
     </row>
     <row r="101" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M101" s="10"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="1">
         <v>23</v>
       </c>
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="102" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M102" s="10"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="1">
         <v>24</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
     </row>
     <row r="103" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M103" s="10" t="s">
+      <c r="M103" s="8" t="s">
         <v>365</v>
       </c>
       <c r="N103" s="1">
@@ -4823,7 +4823,7 @@
       </c>
     </row>
     <row r="104" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M104" s="10"/>
+      <c r="M104" s="8"/>
       <c r="N104" s="1">
         <v>1</v>
       </c>
@@ -4832,7 +4832,7 @@
       </c>
     </row>
     <row r="105" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M105" s="10"/>
+      <c r="M105" s="8"/>
       <c r="N105" s="1">
         <v>2</v>
       </c>
@@ -4841,7 +4841,7 @@
       </c>
     </row>
     <row r="106" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M106" s="10"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="1">
         <v>3</v>
       </c>
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="107" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M107" s="10"/>
+      <c r="M107" s="8"/>
       <c r="N107" s="1">
         <v>4</v>
       </c>
@@ -4859,7 +4859,7 @@
       </c>
     </row>
     <row r="108" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M108" s="10"/>
+      <c r="M108" s="8"/>
       <c r="N108" s="1">
         <v>5</v>
       </c>
@@ -4868,7 +4868,7 @@
       </c>
     </row>
     <row r="109" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M109" s="10"/>
+      <c r="M109" s="8"/>
       <c r="N109" s="1">
         <v>6</v>
       </c>
@@ -4877,7 +4877,7 @@
       </c>
     </row>
     <row r="110" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M110" s="10"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="1">
         <v>7</v>
       </c>
@@ -4886,7 +4886,7 @@
       </c>
     </row>
     <row r="111" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M111" s="10"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="1">
         <v>8</v>
       </c>
@@ -4895,7 +4895,7 @@
       </c>
     </row>
     <row r="112" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M112" s="10"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="1">
         <v>9</v>
       </c>
@@ -4904,7 +4904,7 @@
       </c>
     </row>
     <row r="113" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M113" s="10"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="1">
         <v>10</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="114" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M114" s="10"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="1">
         <v>11</v>
       </c>
@@ -4922,7 +4922,7 @@
       </c>
     </row>
     <row r="115" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M115" s="10"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="1">
         <v>12</v>
       </c>
@@ -4931,7 +4931,7 @@
       </c>
     </row>
     <row r="116" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M116" s="10"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="1">
         <v>13</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
     </row>
     <row r="117" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M117" s="10"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="1">
         <v>14</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="118" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M118" s="10"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="1">
         <v>15</v>
       </c>
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="119" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M119" s="10"/>
+      <c r="M119" s="8"/>
       <c r="N119" s="1">
         <v>16</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
     </row>
     <row r="120" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M120" s="10"/>
+      <c r="M120" s="8"/>
       <c r="N120" s="1">
         <v>17</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
     </row>
     <row r="121" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M121" s="10"/>
+      <c r="M121" s="8"/>
       <c r="N121" s="1">
         <v>18</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="122" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M122" s="10"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="1">
         <v>19</v>
       </c>
@@ -4994,7 +4994,7 @@
       </c>
     </row>
     <row r="123" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M123" s="10"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="1">
         <v>20</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="124" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M124" s="10"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="1">
         <v>21</v>
       </c>
@@ -5012,7 +5012,7 @@
       </c>
     </row>
     <row r="125" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M125" s="10"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="1">
         <v>22</v>
       </c>
@@ -5021,7 +5021,7 @@
       </c>
     </row>
     <row r="126" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M126" s="10"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="1">
         <v>23</v>
       </c>
@@ -5030,7 +5030,7 @@
       </c>
     </row>
     <row r="127" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M127" s="10"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="1">
         <v>24</v>
       </c>
